--- a/master_edital_teste.xlsx
+++ b/master_edital_teste.xlsx
@@ -1,22 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/sheets/EDITAL/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{3D42102E-35DC-4977-8469-76704A16B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16308" yWindow="-15180" windowWidth="16416" windowHeight="28296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -139,7 +132,7 @@
     <t>PAR DE PRATOS EM LIGA DE BRONZE TAMANHO 18".</t>
   </si>
   <si>
-    <t>QUINTOTOM FUSTES COM OS TAMANHOS DE 6*101213', COM COLETE E PAR DE BAQUETA.</t>
+    <t>QUINTOTOM FUSTES COM OS TAMANHOS DE 6"10"12"13" COM COLETE E PAR DE BAQUETA.</t>
   </si>
   <si>
     <t>U_981263_E_900232025_C_PREFEITURA_MUNICIPAL_DE_MIRAIMA_26-08-2025_09h00m.pdf</t>
@@ -178,14 +171,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -214,7 +214,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -227,55 +234,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -286,10 +290,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -327,71 +331,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,7 +423,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -442,11 +446,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -455,13 +459,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -471,7 +475,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -480,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -489,7 +493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -497,10 +501,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -565,722 +569,720 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="66.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
         <v>27</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
         <v>25</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>21673.33</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>541833.25</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
         <v>50</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>7885.69</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>394284.5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
         <v>315</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>1093</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>344295</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
         <v>32</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>6236.15</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>199556.8</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
         <v>32</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>6020</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>192640</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
         <v>25</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
         <v>32</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>5836</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>186752</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
         <v>23</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
         <v>63</v>
       </c>
-      <c r="F8" s="10">
-        <v>2225.1999999999998</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="7">
+        <v>2225.2</v>
+      </c>
+      <c r="G8" s="7">
         <v>140187.6</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="31.5">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
         <v>32</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>3400</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>108800</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
         <v>63</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>1454.32</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>91622.16</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>48</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11" s="10">
-        <v>8898.3799999999992</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="7">
+        <v>8898.38</v>
+      </c>
+      <c r="G11" s="7">
         <v>88983.8</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>68</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>7885.69</v>
       </c>
-      <c r="G12" s="10">
-        <v>78856.899999999994</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="7">
+        <v>78856.9</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>124</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5">
         <v>44</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>1596.67</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <v>70253.48</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
         <v>66</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>21673.33</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <v>65019.99</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="56.25">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5">
         <v>32</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5">
         <v>76</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>740.38</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <v>56268.88</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="73.5">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>21</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5">
         <v>19</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>2607</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <v>49533</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="31.5">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5">
         <v>4</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5">
         <v>346</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>125.36</v>
       </c>
-      <c r="G17" s="10">
-        <v>43374.559999999998</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="G17" s="7">
+        <v>43374.56</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5">
         <v>10</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5">
         <v>32</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <v>1278.07</v>
       </c>
-      <c r="G18" s="10">
-        <v>40898.239999999998</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="G18" s="7">
+        <v>40898.24</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="31.5">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8">
-        <v>13</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7">
         <v>2731.63</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="7">
         <v>35511.19</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="5">
         <v>76</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5">
         <v>8</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="7">
         <v>3696.67</v>
       </c>
-      <c r="G20" s="10">
-        <v>29573.360000000001</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="7">
+        <v>29573.36</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="5">
         <v>7</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>29138.49</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="7">
         <v>29138.49</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>3</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5">
         <v>1</v>
       </c>
-      <c r="F22" s="10">
-        <v>23187.439999999999</v>
-      </c>
-      <c r="G22" s="10">
-        <v>23187.439999999999</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="7">
+        <v>23187.44</v>
+      </c>
+      <c r="G22" s="7">
+        <v>23187.44</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="8">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5">
         <v>19</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5">
         <v>6</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="7">
         <v>3645.76</v>
       </c>
-      <c r="G23" s="10">
-        <v>21874.560000000001</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="G23" s="7">
+        <v>21874.56</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="5">
         <v>74</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="9">
         <v>10858.09</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="9">
         <v>21716.18</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="4" t="s">
         <v>42</v>
       </c>
     </row>
